--- a/biology/Médecine/1480_en_santé_et_médecine/1480_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1480_en_santé_et_médecine/1480_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1480_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1480_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1480 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1480_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1480_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'expérience est tentée à Tours, « en présence du maire, des échevins et des élus de la ville », d'un poison administré à un chien, des effets duquel sept barbiers et chirurgiens sont chargés de rendre compte au roi Louis XI[1].
-Construction de l'hôpital Saint-Louis de France à Rome[2].
-Construction de l'hôpital de Nürtingen en Allemagne[3].
-L'hôpital Saint-Jacques, « destiné à servir d'asile à la vieillesse », est attesté à Bergues, en Flandre, et ne sera supprimé qu'en 1789[4].
-Fondation de l'hôpital Saint-Jacques-le-Majeur à Cambrai, principauté du Saint-Empire, « pour recevoir de pauvres pèlerins[5] ».
-Fondation d'un hôpital par Pirro Caracciolo (1452–1481), archevêque de Cosenza, en Calabre[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'expérience est tentée à Tours, « en présence du maire, des échevins et des élus de la ville », d'un poison administré à un chien, des effets duquel sept barbiers et chirurgiens sont chargés de rendre compte au roi Louis XI.
+Construction de l'hôpital Saint-Louis de France à Rome.
+Construction de l'hôpital de Nürtingen en Allemagne.
+L'hôpital Saint-Jacques, « destiné à servir d'asile à la vieillesse », est attesté à Bergues, en Flandre, et ne sera supprimé qu'en 1789.
+Fondation de l'hôpital Saint-Jacques-le-Majeur à Cambrai, principauté du Saint-Empire, « pour recevoir de pauvres pèlerins ».
+Fondation d'un hôpital par Pirro Caracciolo (1452–1481), archevêque de Cosenza, en Calabre.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1480_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1480_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, à Venise, du Régime de santé de l'école de Salerne d'Arnaud de Villeneuve (1240-1311)[7].
-Première édition, à Venise, du Traité de chirurgie de Pierre d'Argelata († 1423), médecin et chirurgien de Bologne[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, à Venise, du Régime de santé de l'école de Salerne d'Arnaud de Villeneuve (1240-1311).
+Première édition, à Venise, du Traité de chirurgie de Pierre d'Argelata († 1423), médecin et chirurgien de Bologne.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1480_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1480_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Planeri (mort en 1570), philosophe et médecin lombard, au service des empereurs d'Allemagne Ferdinand Ier et Maximilien II[9].
-Vers 1470-1480 : Matthieu Adriani (mort à une date inconnue), humaniste espagnol, docteur en médecine, professeur d'hébreu à Louvain[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Planeri (mort en 1570), philosophe et médecin lombard, au service des empereurs d'Allemagne Ferdinand Ier et Maximilien II.
+Vers 1470-1480 : Matthieu Adriani (mort à une date inconnue), humaniste espagnol, docteur en médecine, professeur d'hébreu à Louvain.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1480_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1480_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,11 +626,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant le 27 juillet : Guillaume Girard (né à une date inconnue), médecin ordinaire du roi Louis XI[11].
-19 novembre : Baverio Baviera (né vers 1405-1406), médecin italien[12],[13].
-Après 1480 : Rolando de' Capelluti (né vers 1430), médecin parmesan, fils de Rinaldo Capelluti, également médecin, auteur de divers traités, sur la peste, sur l'otite, sur la profession de médecin[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant le 27 juillet : Guillaume Girard (né à une date inconnue), médecin ordinaire du roi Louis XI.
+19 novembre : Baverio Baviera (né vers 1405-1406), médecin italien,.
+Après 1480 : Rolando de' Capelluti (né vers 1430), médecin parmesan, fils de Rinaldo Capelluti, également médecin, auteur de divers traités, sur la peste, sur l'otite, sur la profession de médecin.</t>
         </is>
       </c>
     </row>
